--- a/DIY_solderStation/voltageTemp.xlsx
+++ b/DIY_solderStation/voltageTemp.xlsx
@@ -4,30 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="VoltageToTemp" sheetId="2" r:id="rId2"/>
+    <sheet name="TC_Voltage_To" sheetId="4" r:id="rId3"/>
+    <sheet name="actual_room_tc_Voltage" sheetId="5" r:id="rId4"/>
+    <sheet name="Constants" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="uVperC">Constants!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>opAmpR1</t>
-  </si>
-  <si>
-    <t>opAmprR2</t>
-  </si>
-  <si>
-    <t>OpAmp Resistor</t>
-  </si>
-  <si>
-    <t>Resistance Ohm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>OpAmpR1</t>
   </si>
@@ -51,6 +45,69 @@
   </si>
   <si>
     <t>OpAmpInt</t>
+  </si>
+  <si>
+    <t>MeasuredVoltageV</t>
+  </si>
+  <si>
+    <t>TC_mV</t>
+  </si>
+  <si>
+    <t>env_Voltage_mV</t>
+  </si>
+  <si>
+    <t>V1_mV</t>
+  </si>
+  <si>
+    <t>TC_Voltage_mV</t>
+  </si>
+  <si>
+    <t>Temp C</t>
+  </si>
+  <si>
+    <t>opAmp_Gain</t>
+  </si>
+  <si>
+    <t>ADC_Voltage_V</t>
+  </si>
+  <si>
+    <t>Temp_ref</t>
+  </si>
+  <si>
+    <t>Voltage_Ref_mV</t>
+  </si>
+  <si>
+    <t>actual TC mV</t>
+  </si>
+  <si>
+    <t>V1 mV</t>
+  </si>
+  <si>
+    <t>TC  temp</t>
+  </si>
+  <si>
+    <t>Caculated TC Temp C</t>
+  </si>
+  <si>
+    <t>opAmpGain</t>
+  </si>
+  <si>
+    <t>ADC Voltage V</t>
+  </si>
+  <si>
+    <t>OpAmpGain</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Solder melt</t>
+  </si>
+  <si>
+    <t>voltage per c mV</t>
   </si>
 </sst>
 </file>
@@ -115,9 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,6 +196,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,181 +510,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="25.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="25.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>41</v>
-      </c>
-      <c r="B2" s="8">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>A2*B2</f>
         <v>410</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>220000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1200</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>D2/E2+1</f>
         <v>184.33333333333334</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>C2/1000*F2/1000</f>
         <v>7.5576666666666667E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>41</v>
       </c>
-      <c r="B3" s="8">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="7">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7">
         <f>A3*B3</f>
         <v>697</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>220000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1200</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>D3/E3+1</f>
         <v>184.33333333333334</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>C3/1000*F3/1000</f>
         <v>0.12848033333333334</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>41</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>26</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>A4*B4</f>
         <v>1066</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>220000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1200</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>D4/E4+1</f>
         <v>184.33333333333334</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>C4/1000*F4/1000</f>
         <v>0.19649933333333336</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>41</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>66</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>A5*B5</f>
         <v>2706</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>220000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1200</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>D5/E5+1</f>
         <v>184.33333333333334</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>C5/1000*F5/1000</f>
         <v>0.49880600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>41</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>83</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>A6*B6</f>
         <v>3403</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>220000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1200</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>D6/E6+1</f>
         <v>184.33333333333334</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>38</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f>C6/1000*F6/1000</f>
         <v>0.62728633333333339</v>
       </c>
@@ -634,45 +696,518 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="22.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>220000</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="B2" s="3">
+        <f>1+220/0.33</f>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="C2" s="9">
+        <f>A2/B2*1000</f>
+        <v>3.4298552171742389</v>
+      </c>
+      <c r="D2" s="9">
+        <f>17*uVperC/1000</f>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2+D2</f>
+        <v>4.1268552171742385</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2*1000/uVperC</f>
+        <v>100.65500529693264</v>
+      </c>
+      <c r="G2" s="9">
+        <v>300</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="9">
+        <f xml:space="preserve"> A2*1000/300</f>
+        <v>7.6333333333333337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <f>220/1+1</f>
+        <v>221</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2/1000</f>
+        <v>8.6189999999999999E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G2" s="7">
+        <f>B2+F2</f>
+        <v>0.71600000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C3" s="7">
+        <f>220/1+1</f>
+        <v>221</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3/1000</f>
+        <v>8.7737000000000009E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G6" si="0">B3+F3</f>
+        <v>1.0740000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="C4" s="7">
+        <f>220/1+1</f>
+        <v>221</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4/1000</f>
+        <v>0.14961700000000003</v>
+      </c>
+      <c r="E4" s="7">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4" si="1">B4+F4</f>
+        <v>1.3540000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>100</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="C5" s="7">
+        <f>220/1+1</f>
+        <v>221</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5*C5/1000</f>
+        <v>0.90521600000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7729999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>300</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12.209</v>
+      </c>
+      <c r="C6" s="7">
+        <f>220/1+1</f>
+        <v>221</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6/1000</f>
+        <v>2.6981889999999997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>12.885999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="17.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10">
+        <f>1+220/0.33</f>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D2" s="10">
+        <f t="shared" ref="D2:D4" si="0">B2/C2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G2" s="10">
+        <f>D2+F2</f>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H2" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="10">
+        <f>1+220/0.33</f>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9910134797803299E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G5" si="1">D3+F3</f>
+        <v>0.73691013479780332</v>
+      </c>
+      <c r="H3" s="10">
+        <f>G3/uVperC*1000</f>
+        <v>17.973417921897642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="10">
+        <f>1+220/0.33</f>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13479780329505742</v>
+      </c>
+      <c r="E4" s="10">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>0.81179780329505746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" ref="C5:C7" si="2">1+220/0.33</f>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D5" s="10">
+        <f>B5/C5*1000</f>
+        <v>0.14977533699450823</v>
+      </c>
+      <c r="E5" s="10">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.82677533699450834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="2"/>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D6" s="10">
+        <f>B6/C6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>300</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="2"/>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="D7" s="10">
+        <f>B7/C7*1000</f>
+        <v>1.0484273589615578</v>
+      </c>
+      <c r="E7" s="10">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="10">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DIY_solderStation/voltageTemp.xlsx
+++ b/DIY_solderStation/voltageTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>OpAmpR1</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>voltage per c mV</t>
+  </si>
+  <si>
+    <t>tc uv per C</t>
+  </si>
+  <si>
+    <t>400C</t>
   </si>
 </sst>
 </file>
@@ -698,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,7 +719,8 @@
     <col min="7" max="7" width="9.140625" style="9"/>
     <col min="8" max="8" width="22.42578125" style="9" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="10" max="10" width="18.7109375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -744,7 +751,9 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -754,24 +763,24 @@
         <v>2.29</v>
       </c>
       <c r="B2" s="3">
-        <f>1+220/0.33</f>
-        <v>667.66666666666663</v>
+        <f>1+500/1</f>
+        <v>501</v>
       </c>
       <c r="C2" s="9">
         <f>A2/B2*1000</f>
-        <v>3.4298552171742389</v>
+        <v>4.5708582834331333</v>
       </c>
       <c r="D2" s="9">
         <f>17*uVperC/1000</f>
-        <v>0.69699999999999995</v>
+        <v>0.187</v>
       </c>
       <c r="E2" s="9">
         <f>C2+D2</f>
-        <v>4.1268552171742385</v>
+        <v>4.7578582834331336</v>
       </c>
       <c r="F2" s="9">
         <f>E2*1000/uVperC</f>
-        <v>100.65500529693264</v>
+        <v>432.53257122119396</v>
       </c>
       <c r="G2" s="9">
         <v>300</v>
@@ -782,6 +791,10 @@
       <c r="I2" s="9">
         <f xml:space="preserve"> A2*1000/300</f>
         <v>7.6333333333333337</v>
+      </c>
+      <c r="J2" s="9">
+        <f xml:space="preserve"> I2*1000/B2</f>
+        <v>15.236194278110448</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +808,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,12 +958,12 @@
         <v>12.209</v>
       </c>
       <c r="C6" s="7">
-        <f>220/1+1</f>
-        <v>221</v>
+        <f>500/1+1</f>
+        <v>501</v>
       </c>
       <c r="D6" s="7">
         <f>B6*C6/1000</f>
-        <v>2.6981889999999997</v>
+        <v>6.1167090000000002</v>
       </c>
       <c r="E6" s="7">
         <v>17</v>
@@ -971,10 +984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1080,7 @@
       </c>
       <c r="H3" s="10">
         <f>G3/uVperC*1000</f>
-        <v>17.973417921897642</v>
+        <v>66.991830436163937</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,7 +1117,7 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="10">
-        <f t="shared" ref="C5:C7" si="2">1+220/0.33</f>
+        <f t="shared" ref="C5:C8" si="2">1+220/0.33</f>
         <v>667.66666666666663</v>
       </c>
       <c r="D5" s="10">
@@ -1164,6 +1177,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>300</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="10">
+        <f>1+500/1</f>
+        <v>501</v>
+      </c>
+      <c r="D8" s="10">
+        <f>B8/C8*1000</f>
+        <v>4.9900199600798407</v>
+      </c>
       <c r="E8" s="10">
         <v>17</v>
       </c>
@@ -1185,6 +1212,15 @@
       </c>
       <c r="F10" s="10">
         <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10">
+        <f>400*uVperC/1000*(1+500/1)/1000</f>
+        <v>2.2044000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1196,15 +1232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
